--- a/public/stylesheets/boothday-excel-seed.xlsx
+++ b/public/stylesheets/boothday-excel-seed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heondo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heondo/Desktop/캡스톤/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687AC500-5974-044C-AEB5-E2208036B752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8A0F13-61D5-8548-9ECE-6A1360A1AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="760" windowWidth="20200" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="760" windowWidth="24120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="102">
   <si>
     <t>중앙광장과 학산도서관 사이</t>
   </si>
@@ -743,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2319,1642 +2319,1619 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
+        <f ca="1">RANDBETWEEN(2,3)</f>
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>33.473616441399997</v>
+        <v>33.473183532</v>
       </c>
       <c r="E79">
-        <v>124.8538148474</v>
+        <v>124.8500509699</v>
       </c>
       <c r="F79" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
+        <f t="shared" ref="A80:A143" ca="1" si="0">RANDBETWEEN(2,3)</f>
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>33.473746769400002</v>
+        <v>33.473785332299997</v>
       </c>
       <c r="E80">
-        <v>124.851380366</v>
+        <v>124.8516659693</v>
       </c>
       <c r="F80" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>33.473866503000004</v>
+        <v>33.4729801485</v>
       </c>
       <c r="E81">
-        <v>124.852403462</v>
+        <v>124.8506122476</v>
       </c>
       <c r="F81" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>33.473737429499998</v>
+        <v>33.473895521199999</v>
       </c>
       <c r="E82">
-        <v>124.8515688459</v>
+        <v>124.8505390318</v>
       </c>
       <c r="F82" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>33.473005911400001</v>
+        <v>33.473092544300002</v>
       </c>
       <c r="E83">
-        <v>124.8512953749</v>
+        <v>124.85386318659999</v>
       </c>
       <c r="F83" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>33.473717091300003</v>
+        <v>33.473690466500003</v>
       </c>
       <c r="E84">
-        <v>124.8534183587</v>
+        <v>124.8503669059</v>
       </c>
       <c r="F84" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>33.4729783979</v>
+        <v>33.473986603699998</v>
       </c>
       <c r="E85">
-        <v>124.85317188969999</v>
+        <v>124.85171050540001</v>
       </c>
       <c r="F85" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>33.473809082300001</v>
+        <v>33.4732305291</v>
       </c>
       <c r="E86">
-        <v>124.85360702929999</v>
+        <v>124.8512210542</v>
       </c>
       <c r="F86" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>33.473391843400002</v>
+        <v>33.473867693999999</v>
       </c>
       <c r="E87">
-        <v>124.8526447502</v>
+        <v>124.852429853</v>
       </c>
       <c r="F87" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>33.473967440700001</v>
+        <v>33.473183055299998</v>
       </c>
       <c r="E88">
-        <v>124.8521637268</v>
+        <v>124.8522786138</v>
       </c>
       <c r="F88" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>33.472969933100003</v>
+        <v>33.4729685597</v>
       </c>
       <c r="E89">
-        <v>124.8510401881</v>
+        <v>124.85374194400001</v>
       </c>
       <c r="F89" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>33.473696721400003</v>
+        <v>33.473141827200003</v>
       </c>
       <c r="E90">
-        <v>124.8512358001</v>
+        <v>124.8503887599</v>
       </c>
       <c r="F90" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D91">
-        <v>33.473154262999998</v>
+        <v>33.4729698648</v>
       </c>
       <c r="E91">
-        <v>124.8536997274</v>
+        <v>124.85051516759999</v>
       </c>
       <c r="F91" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D92">
-        <v>33.473661957399997</v>
+        <v>33.4736954428</v>
       </c>
       <c r="E92">
-        <v>124.8504057034</v>
+        <v>124.85061637680001</v>
       </c>
       <c r="F92" s="1">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>33.473845888</v>
+        <v>33.473683473000001</v>
       </c>
       <c r="E93">
-        <v>124.8512020189</v>
+        <v>124.8505060853</v>
       </c>
       <c r="F93" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
+        <f ca="1">RANDBETWEEN(2,3)</f>
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>33.473345872300001</v>
+        <v>33.473616441399997</v>
       </c>
       <c r="E94">
-        <v>124.8509048895</v>
+        <v>124.8538148474</v>
       </c>
       <c r="F94" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>33.473572902999997</v>
+        <v>33.473746769400002</v>
       </c>
       <c r="E95">
-        <v>124.851571105</v>
+        <v>124.851380366</v>
       </c>
       <c r="F95" s="1">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D96">
-        <v>33.473322425200003</v>
+        <v>33.473866503000004</v>
       </c>
       <c r="E96">
-        <v>124.8531332333</v>
+        <v>124.852403462</v>
       </c>
       <c r="F96" s="1">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>33.473347855</v>
+        <v>33.473737429499998</v>
       </c>
       <c r="E97">
-        <v>124.85200391950001</v>
+        <v>124.8515688459</v>
       </c>
       <c r="F97" s="1">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>33.4730678743</v>
+        <v>33.473005911400001</v>
       </c>
       <c r="E98">
-        <v>124.8517597613</v>
+        <v>124.8512953749</v>
       </c>
       <c r="F98" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>33.473969048900003</v>
+        <v>33.473717091300003</v>
       </c>
       <c r="E99">
-        <v>124.8517024496</v>
+        <v>124.8534183587</v>
       </c>
       <c r="F99" s="1">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D100">
-        <v>33.473382075899998</v>
+        <v>33.4729783979</v>
       </c>
       <c r="E100">
-        <v>124.8503354894</v>
+        <v>124.85317188969999</v>
       </c>
       <c r="F100" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>33.473159399700002</v>
+        <v>33.473809082300001</v>
       </c>
       <c r="E101">
-        <v>124.851018835</v>
+        <v>124.85360702929999</v>
       </c>
       <c r="F101" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102">
-        <v>33.473054209899999</v>
+        <v>33.473391843400002</v>
       </c>
       <c r="E102">
-        <v>124.8531551177</v>
+        <v>124.8526447502</v>
       </c>
       <c r="F102" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>33.4731276921</v>
+        <v>33.473967440700001</v>
       </c>
       <c r="E103">
-        <v>124.85253528139999</v>
+        <v>124.8521637268</v>
       </c>
       <c r="F103" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D104">
-        <v>33.473670550599998</v>
+        <v>33.472969933100003</v>
       </c>
       <c r="E104">
-        <v>124.85157336810001</v>
+        <v>124.8510401881</v>
       </c>
       <c r="F104" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>33.473711213100003</v>
+        <v>33.473696721400003</v>
       </c>
       <c r="E105">
-        <v>124.8527717108</v>
+        <v>124.8512358001</v>
       </c>
       <c r="F105" s="1">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>33.473584306500001</v>
+        <v>33.473154262999998</v>
       </c>
       <c r="E106">
-        <v>124.8519260481</v>
+        <v>124.8536997274</v>
       </c>
       <c r="F106" s="1">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C107" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>33.473137120600001</v>
+        <v>33.473661957399997</v>
       </c>
       <c r="E107">
-        <v>124.8506328176</v>
+        <v>124.8504057034</v>
       </c>
       <c r="F107" s="1">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>33.473046035000003</v>
+        <v>33.473845888</v>
       </c>
       <c r="E108">
-        <v>124.8528148215</v>
+        <v>124.8512020189</v>
       </c>
       <c r="F108" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>33.4733593614</v>
+        <v>33.473345872300001</v>
       </c>
       <c r="E109">
-        <v>124.85054303930001</v>
+        <v>124.8509048895</v>
       </c>
       <c r="F109" s="1">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D110">
-        <v>33.473209457000003</v>
+        <v>33.473572902999997</v>
       </c>
       <c r="E110">
-        <v>124.8535205333</v>
+        <v>124.851571105</v>
       </c>
       <c r="F110" s="1">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>33.4735278562</v>
+        <v>33.473322425200003</v>
       </c>
       <c r="E111">
-        <v>124.8520419962</v>
+        <v>124.8531332333</v>
       </c>
       <c r="F111" s="1">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D112">
-        <v>33.473249690300001</v>
+        <v>33.473347855</v>
       </c>
       <c r="E112">
-        <v>124.8501432308</v>
+        <v>124.85200391950001</v>
       </c>
       <c r="F112" s="1">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>33.4730678743</v>
+      </c>
+      <c r="E113">
+        <v>124.8517597613</v>
+      </c>
+      <c r="F113" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>33.473969048900003</v>
+      </c>
+      <c r="E114">
+        <v>124.8517024496</v>
+      </c>
+      <c r="F114" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>33.473382075899998</v>
+      </c>
+      <c r="E115">
+        <v>124.8503354894</v>
+      </c>
+      <c r="F115" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>33.473159399700002</v>
+      </c>
+      <c r="E116">
+        <v>124.851018835</v>
+      </c>
+      <c r="F116" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>33.473054209899999</v>
+      </c>
+      <c r="E117">
+        <v>124.8531551177</v>
+      </c>
+      <c r="F117" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>57</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>33.4731276921</v>
+      </c>
+      <c r="E118">
+        <v>124.85253528139999</v>
+      </c>
+      <c r="F118" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>33.473670550599998</v>
+      </c>
+      <c r="E119">
+        <v>124.85157336810001</v>
+      </c>
+      <c r="F119" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120">
+        <v>33.473711213100003</v>
+      </c>
+      <c r="E120">
+        <v>124.8527717108</v>
+      </c>
+      <c r="F120" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>33.473584306500001</v>
+      </c>
+      <c r="E121">
+        <v>124.8519260481</v>
+      </c>
+      <c r="F121" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>33.473137120600001</v>
+      </c>
+      <c r="E122">
+        <v>124.8506328176</v>
+      </c>
+      <c r="F122" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123">
+        <v>33.473046035000003</v>
+      </c>
+      <c r="E123">
+        <v>124.8528148215</v>
+      </c>
+      <c r="F123" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>33.4733593614</v>
+      </c>
+      <c r="E124">
+        <v>124.85054303930001</v>
+      </c>
+      <c r="F124" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125">
+        <v>33.473209457000003</v>
+      </c>
+      <c r="E125">
+        <v>124.8535205333</v>
+      </c>
+      <c r="F125" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126">
+        <v>33.4735278562</v>
+      </c>
+      <c r="E126">
+        <v>124.8520419962</v>
+      </c>
+      <c r="F126" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>33.473249690300001</v>
+      </c>
+      <c r="E127">
+        <v>124.8501432308</v>
+      </c>
+      <c r="F127" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
         <v>67</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C128" t="s">
         <v>94</v>
       </c>
-      <c r="D113">
+      <c r="D128">
         <v>33.473234802500002</v>
       </c>
-      <c r="E113">
+      <c r="E128">
         <v>124.85344044670001</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F128" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1">
-        <v>3</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1">
-        <v>33.47318353</v>
-      </c>
-      <c r="E114" s="1">
-        <v>124.85005099999999</v>
-      </c>
-      <c r="F114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1">
-        <v>3</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" s="1">
-        <v>33.473785329999998</v>
-      </c>
-      <c r="E115" s="1">
-        <v>124.85166599999999</v>
-      </c>
-      <c r="F115" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1">
-        <v>3</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="1">
-        <v>33.472980149999998</v>
-      </c>
-      <c r="E116" s="1">
-        <v>124.8506122</v>
-      </c>
-      <c r="F116" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1">
-        <v>3</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1">
-        <v>33.473895519999999</v>
-      </c>
-      <c r="E117" s="1">
-        <v>124.850539</v>
-      </c>
-      <c r="F117" s="1">
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129">
+        <v>33.473501946399999</v>
+      </c>
+      <c r="E129">
+        <v>124.8505527861</v>
+      </c>
+      <c r="F129" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>33.473821969399999</v>
+      </c>
+      <c r="E130">
+        <v>124.8538549431</v>
+      </c>
+      <c r="F130" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>33.4735905211</v>
+      </c>
+      <c r="E131">
+        <v>124.8531506249</v>
+      </c>
+      <c r="F131" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>33.473302760099997</v>
+      </c>
+      <c r="E132">
+        <v>124.8529770474</v>
+      </c>
+      <c r="F132" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>33.473709953399997</v>
+      </c>
+      <c r="E133">
+        <v>124.8518466076</v>
+      </c>
+      <c r="F133" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>33.473874203100003</v>
+      </c>
+      <c r="E134">
+        <v>124.8502091898</v>
+      </c>
+      <c r="F134" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>33.473970557100003</v>
+      </c>
+      <c r="E135">
+        <v>124.85055067819999</v>
+      </c>
+      <c r="F135" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136">
+        <v>33.473906219200003</v>
+      </c>
+      <c r="E136">
+        <v>124.850232355</v>
+      </c>
+      <c r="F136" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>33.473406725300002</v>
+      </c>
+      <c r="E137">
+        <v>124.8527521689</v>
+      </c>
+      <c r="F137" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>33.473357922600002</v>
+      </c>
+      <c r="E138">
+        <v>124.85038900550001</v>
+      </c>
+      <c r="F138" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1">
-        <v>3</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="1">
-        <v>33.473092540000003</v>
-      </c>
-      <c r="E118" s="1">
-        <v>124.85386320000001</v>
-      </c>
-      <c r="F118" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1">
-        <v>3</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="1">
-        <v>33.473690470000001</v>
-      </c>
-      <c r="E119" s="1">
-        <v>124.8503669</v>
-      </c>
-      <c r="F119" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1">
-        <v>3</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" s="1">
-        <v>33.473986600000003</v>
-      </c>
-      <c r="E120" s="1">
-        <v>124.8517105</v>
-      </c>
-      <c r="F120" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1">
-        <v>3</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="1">
-        <v>33.473230530000002</v>
-      </c>
-      <c r="E121" s="1">
-        <v>124.8512211</v>
-      </c>
-      <c r="F121" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>3</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="1">
-        <v>33.473867689999999</v>
-      </c>
-      <c r="E122" s="1">
-        <v>124.8524299</v>
-      </c>
-      <c r="F122" s="1">
+      <c r="D139">
+        <v>33.4735333012</v>
+      </c>
+      <c r="E139">
+        <v>124.8512097241</v>
+      </c>
+      <c r="F139" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>33.473499401300003</v>
+      </c>
+      <c r="E140">
+        <v>124.8501635069</v>
+      </c>
+      <c r="F140" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>80</v>
+      </c>
+      <c r="C141" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1">
-        <v>3</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="1">
-        <v>33.473183059999997</v>
-      </c>
-      <c r="E123" s="1">
-        <v>124.85227860000001</v>
-      </c>
-      <c r="F123" s="1">
+      <c r="D141">
+        <v>33.473488643800003</v>
+      </c>
+      <c r="E141">
+        <v>124.8539845392</v>
+      </c>
+      <c r="F141" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1">
-        <v>3</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="1">
-        <v>33.472968559999998</v>
-      </c>
-      <c r="E124" s="1">
-        <v>124.8537419</v>
-      </c>
-      <c r="F124" s="1">
+      <c r="D142">
+        <v>33.473544275999998</v>
+      </c>
+      <c r="E142">
+        <v>124.85330783889999</v>
+      </c>
+      <c r="F142" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>33.473233265300003</v>
+      </c>
+      <c r="E143">
+        <v>124.8526950521</v>
+      </c>
+      <c r="F143" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <f t="shared" ref="A144:A155" ca="1" si="1">RANDBETWEEN(2,3)</f>
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1">
-        <v>3</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" s="1">
-        <v>33.473141830000003</v>
-      </c>
-      <c r="E125" s="1">
-        <v>124.8503888</v>
-      </c>
-      <c r="F125" s="1">
+      <c r="D144">
+        <v>33.473533823700002</v>
+      </c>
+      <c r="E144">
+        <v>124.85017095800001</v>
+      </c>
+      <c r="F144" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1">
-        <v>3</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="1">
-        <v>33.472969859999999</v>
-      </c>
-      <c r="E126" s="1">
-        <v>124.8505152</v>
-      </c>
-      <c r="F126" s="1">
+      <c r="D145">
+        <v>33.473387020700002</v>
+      </c>
+      <c r="E145">
+        <v>124.8530007799</v>
+      </c>
+      <c r="F145" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>33.473906400899999</v>
+      </c>
+      <c r="E146">
+        <v>124.8529996124</v>
+      </c>
+      <c r="F146" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>3</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="1">
-        <v>33.47369544</v>
-      </c>
-      <c r="E127" s="1">
-        <v>124.85061640000001</v>
-      </c>
-      <c r="F127" s="1">
+      <c r="D147">
+        <v>33.473901464599997</v>
+      </c>
+      <c r="E147">
+        <v>124.8513610466</v>
+      </c>
+      <c r="F147" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>33.4735988276</v>
+      </c>
+      <c r="E148">
+        <v>124.8529280946</v>
+      </c>
+      <c r="F148" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>3</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="1">
-        <v>33.473322430000003</v>
-      </c>
-      <c r="E128" s="1">
-        <v>124.8531332</v>
-      </c>
-      <c r="F128" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>3</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" s="1">
-        <v>33.473347859999997</v>
-      </c>
-      <c r="E129" s="1">
-        <v>124.8520039</v>
-      </c>
-      <c r="F129" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>3</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="1">
-        <v>33.473067870000001</v>
-      </c>
-      <c r="E130" s="1">
-        <v>124.8517598</v>
-      </c>
-      <c r="F130" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>3</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="1">
-        <v>33.473969050000001</v>
-      </c>
-      <c r="E131" s="1">
-        <v>124.85170239999999</v>
-      </c>
-      <c r="F131" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>3</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="1">
-        <v>33.47338208</v>
-      </c>
-      <c r="E132" s="1">
-        <v>124.8503355</v>
-      </c>
-      <c r="F132" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>3</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" s="1">
-        <v>33.4731594</v>
-      </c>
-      <c r="E133" s="1">
-        <v>124.85101880000001</v>
-      </c>
-      <c r="F133" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>3</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="1">
-        <v>33.473054210000001</v>
-      </c>
-      <c r="E134" s="1">
-        <v>124.8531551</v>
-      </c>
-      <c r="F134" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>3</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="1">
-        <v>33.473127689999998</v>
-      </c>
-      <c r="E135" s="1">
-        <v>124.8525353</v>
-      </c>
-      <c r="F135" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>3</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" s="1">
-        <v>33.473670550000001</v>
-      </c>
-      <c r="E136" s="1">
-        <v>124.85157340000001</v>
-      </c>
-      <c r="F136" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>3</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="1">
-        <v>33.473711209999998</v>
-      </c>
-      <c r="E137" s="1">
-        <v>124.85277170000001</v>
-      </c>
-      <c r="F137" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>3</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="1">
-        <v>33.47358431</v>
-      </c>
-      <c r="E138" s="1">
-        <v>124.85192600000001</v>
-      </c>
-      <c r="F138" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>3</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D139" s="1">
-        <v>33.473137119999997</v>
-      </c>
-      <c r="E139" s="1">
-        <v>124.8506328</v>
-      </c>
-      <c r="F139" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>3</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="1">
-        <v>33.47304604</v>
-      </c>
-      <c r="E140" s="1">
-        <v>124.8528148</v>
-      </c>
-      <c r="F140" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>3</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D141" s="1">
-        <v>33.473359360000003</v>
-      </c>
-      <c r="E141" s="1">
-        <v>124.850543</v>
-      </c>
-      <c r="F141" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>3</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="1">
-        <v>33.47320946</v>
-      </c>
-      <c r="E142" s="1">
-        <v>124.8535205</v>
-      </c>
-      <c r="F142" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>3</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="D149">
+        <v>33.473343178199997</v>
+      </c>
+      <c r="E149">
+        <v>124.8520337807</v>
+      </c>
+      <c r="F149" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" t="s">
         <v>15</v>
       </c>
-      <c r="D143" s="1">
-        <v>33.473527859999997</v>
-      </c>
-      <c r="E143" s="1">
-        <v>124.852042</v>
-      </c>
-      <c r="F143" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>3</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" s="1">
-        <v>33.473249690000003</v>
-      </c>
-      <c r="E144" s="1">
-        <v>124.85014320000001</v>
-      </c>
-      <c r="F144" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>3</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="D150">
+        <v>33.473192567200002</v>
+      </c>
+      <c r="E150">
+        <v>124.8515155111</v>
+      </c>
+      <c r="F150" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>33.473763824800002</v>
+      </c>
+      <c r="E151">
+        <v>124.8535159457</v>
+      </c>
+      <c r="F151" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>91</v>
+      </c>
+      <c r="C152" t="s">
         <v>16</v>
       </c>
-      <c r="D145" s="1">
-        <v>33.4732348</v>
-      </c>
-      <c r="E145" s="1">
-        <v>124.8534404</v>
-      </c>
-      <c r="F145" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>3</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="D152">
+        <v>33.473851850700001</v>
+      </c>
+      <c r="E152">
+        <v>124.8539506731</v>
+      </c>
+      <c r="F152" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>92</v>
+      </c>
+      <c r="C153" t="s">
         <v>17</v>
       </c>
-      <c r="D146" s="1">
-        <v>33.473501949999999</v>
-      </c>
-      <c r="E146" s="1">
-        <v>124.8505528</v>
-      </c>
-      <c r="F146" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1">
-        <v>3</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" s="1">
-        <v>33.473821970000003</v>
-      </c>
-      <c r="E147" s="1">
-        <v>124.8538549</v>
-      </c>
-      <c r="F147" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1">
-        <v>3</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="1">
-        <v>33.473590520000002</v>
-      </c>
-      <c r="E148" s="1">
-        <v>124.85315060000001</v>
-      </c>
-      <c r="F148" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1">
-        <v>3</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" s="1">
-        <v>33.473302760000003</v>
-      </c>
-      <c r="E149" s="1">
-        <v>124.852977</v>
-      </c>
-      <c r="F149" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1">
-        <v>3</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="1">
-        <v>33.47370995</v>
-      </c>
-      <c r="E150" s="1">
-        <v>124.8518466</v>
-      </c>
-      <c r="F150" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1">
-        <v>3</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="1">
-        <v>33.473874199999997</v>
-      </c>
-      <c r="E151" s="1">
-        <v>124.85020919999999</v>
-      </c>
-      <c r="F151" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1">
-        <v>3</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D152" s="1">
-        <v>33.473970559999998</v>
-      </c>
-      <c r="E152" s="1">
-        <v>124.8505507</v>
-      </c>
-      <c r="F152" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1">
-        <v>3</v>
-      </c>
-      <c r="B153" s="1" t="s">
+      <c r="D153">
+        <v>33.473859691000001</v>
+      </c>
+      <c r="E153">
+        <v>124.8509329573</v>
+      </c>
+      <c r="F153" s="1">
         <v>75</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D153" s="1">
-        <v>33.473906220000003</v>
-      </c>
-      <c r="E153" s="1">
-        <v>124.8502324</v>
-      </c>
-      <c r="F153" s="1">
-        <v>58</v>
-      </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="1">
-        <v>3</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="A154">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>93</v>
+      </c>
+      <c r="C154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>33.472982529699998</v>
+      </c>
+      <c r="E154">
+        <v>124.8506634174</v>
+      </c>
+      <c r="F154" s="1">
         <v>76</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="1">
-        <v>33.473406730000001</v>
-      </c>
-      <c r="E154" s="1">
-        <v>124.8527522</v>
-      </c>
-      <c r="F154" s="1">
-        <v>59</v>
-      </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="1">
-        <v>3</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="A155">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
+        <v>101</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>33.473510689699999</v>
+      </c>
+      <c r="E155">
+        <v>124.8537633774</v>
+      </c>
+      <c r="F155" s="1">
         <v>77</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="1">
-        <v>33.473357919999998</v>
-      </c>
-      <c r="E155" s="1">
-        <v>124.85038900000001</v>
-      </c>
-      <c r="F155" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1">
-        <v>3</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D156" s="1">
-        <v>33.4735333</v>
-      </c>
-      <c r="E156" s="1">
-        <v>124.8512097</v>
-      </c>
-      <c r="F156" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1">
-        <v>3</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D157" s="1">
-        <v>33.473499400000001</v>
-      </c>
-      <c r="E157" s="1">
-        <v>124.85016349999999</v>
-      </c>
-      <c r="F157" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1">
-        <v>3</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="1">
-        <v>33.473488639999999</v>
-      </c>
-      <c r="E158" s="1">
-        <v>124.8539845</v>
-      </c>
-      <c r="F158" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1">
-        <v>3</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="1">
-        <v>33.473544279999999</v>
-      </c>
-      <c r="E159" s="1">
-        <v>124.8533078</v>
-      </c>
-      <c r="F159" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1">
-        <v>3</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D160" s="1">
-        <v>33.473233270000001</v>
-      </c>
-      <c r="E160" s="1">
-        <v>124.85269510000001</v>
-      </c>
-      <c r="F160" s="1">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/public/stylesheets/boothday-excel-seed.xlsx
+++ b/public/stylesheets/boothday-excel-seed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heondo/Desktop/캡스톤/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimseonhee126/Desktop/develop/js/INU-Festival-BE/public/stylesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8A0F13-61D5-8548-9ECE-6A1360A1AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC132E39-3698-A747-A925-B8B4D0CCCC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="760" windowWidth="24120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11560" yWindow="760" windowWidth="18680" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="104">
   <si>
     <t>중앙광장과 학산도서관 사이</t>
   </si>
@@ -349,13 +348,21 @@
   </si>
   <si>
     <t>10:00 ~ 16:77</t>
+  </si>
+  <si>
+    <t>10:00 ~ 16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17호관과 암벽등반 사이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,6 +381,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -402,11 +417,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,54 +764,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>33.473183532</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>124.8500509699</v>
       </c>
       <c r="F2" s="1">
@@ -798,19 +821,19 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>33.473785332299997</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>124.8516659693</v>
       </c>
       <c r="F3" s="1">
@@ -818,19 +841,19 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>33.4729801485</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>124.8506122476</v>
       </c>
       <c r="F4" s="1">
@@ -838,19 +861,19 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>33.473895521199999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>124.8505390318</v>
       </c>
       <c r="F5" s="1">
@@ -858,19 +881,19 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>33.473092544300002</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>124.85386318659999</v>
       </c>
       <c r="F6" s="1">
@@ -878,19 +901,19 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>33.473690466500003</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>124.8503669059</v>
       </c>
       <c r="F7" s="1">
@@ -898,19 +921,19 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>33.473986603699998</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>124.85171050540001</v>
       </c>
       <c r="F8" s="1">
@@ -918,19 +941,19 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
         <v>33.4732305291</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>124.8512210542</v>
       </c>
       <c r="F9" s="1">
@@ -938,19 +961,19 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>33.473867693999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>124.852429853</v>
       </c>
       <c r="F10" s="1">
@@ -958,19 +981,19 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>33.473183055299998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>124.8522786138</v>
       </c>
       <c r="F11" s="1">
@@ -978,19 +1001,19 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>33.4729685597</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>124.85374194400001</v>
       </c>
       <c r="F12" s="1">
@@ -998,19 +1021,19 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>33.473141827200003</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>124.8503887599</v>
       </c>
       <c r="F13" s="1">
@@ -1018,19 +1041,19 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>33.4729698648</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>124.85051516759999</v>
       </c>
       <c r="F14" s="1">
@@ -1038,19 +1061,19 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>33.4736954428</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>124.85061637680001</v>
       </c>
       <c r="F15" s="1">
@@ -1058,19 +1081,19 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
         <v>33.473683473000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>124.8505060853</v>
       </c>
       <c r="F16" s="1">
@@ -1078,19 +1101,19 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>33.473616441399997</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>124.8538148474</v>
       </c>
       <c r="F17" s="1">
@@ -1098,19 +1121,19 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
         <v>33.473746769400002</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>124.851380366</v>
       </c>
       <c r="F18" s="1">
@@ -1118,19 +1141,19 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>33.473866503000004</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>124.852403462</v>
       </c>
       <c r="F19" s="1">
@@ -1138,19 +1161,19 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>33.473737429499998</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>124.8515688459</v>
       </c>
       <c r="F20" s="1">
@@ -1158,19 +1181,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
         <v>33.473005911400001</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>124.8512953749</v>
       </c>
       <c r="F21" s="1">
@@ -1178,19 +1201,19 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>33.473717091300003</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>124.8534183587</v>
       </c>
       <c r="F22" s="1">
@@ -1198,19 +1221,19 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>33.4729783979</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>124.85317188969999</v>
       </c>
       <c r="F23" s="1">
@@ -1218,19 +1241,19 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
         <v>33.473809082300001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>124.85360702929999</v>
       </c>
       <c r="F24" s="1">
@@ -1238,19 +1261,19 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>33.473391843400002</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>124.8526447502</v>
       </c>
       <c r="F25" s="1">
@@ -1258,19 +1281,19 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
         <v>33.473967440700001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>124.8521637268</v>
       </c>
       <c r="F26" s="1">
@@ -1278,19 +1301,19 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>33.472969933100003</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>124.8510401881</v>
       </c>
       <c r="F27" s="1">
@@ -1298,19 +1321,19 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>33.473696721400003</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>124.8512358001</v>
       </c>
       <c r="F28" s="1">
@@ -1318,19 +1341,19 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
         <v>33.473154262999998</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>124.8536997274</v>
       </c>
       <c r="F29" s="1">
@@ -1338,19 +1361,19 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
         <v>33.473661957399997</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>124.8504057034</v>
       </c>
       <c r="F30" s="1">
@@ -1358,19 +1381,19 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
         <v>33.473845888</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>124.8512020189</v>
       </c>
       <c r="F31" s="1">
@@ -1378,19 +1401,19 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>33.473345872300001</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>124.8509048895</v>
       </c>
       <c r="F32" s="1">
@@ -1398,19 +1421,19 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>33.473572902999997</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>124.851571105</v>
       </c>
       <c r="F33" s="1">
@@ -1418,19 +1441,19 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
         <v>33.473322425200003</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>124.8531332333</v>
       </c>
       <c r="F34" s="1">
@@ -1438,19 +1461,19 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>33.473347855</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>124.85200391950001</v>
       </c>
       <c r="F35" s="1">
@@ -1458,19 +1481,19 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>33.4730678743</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>124.8517597613</v>
       </c>
       <c r="F36" s="1">
@@ -1478,19 +1501,19 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
         <v>33.473969048900003</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>124.8517024496</v>
       </c>
       <c r="F37" s="1">
@@ -1498,19 +1521,19 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>33.473382075899998</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>124.8503354894</v>
       </c>
       <c r="F38" s="1">
@@ -1518,19 +1541,19 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
         <v>33.473159399700002</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>124.851018835</v>
       </c>
       <c r="F39" s="1">
@@ -1538,19 +1561,19 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>33.473054209899999</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>124.8531551177</v>
       </c>
       <c r="F40" s="1">
@@ -1558,19 +1581,19 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>33.4731276921</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>124.85253528139999</v>
       </c>
       <c r="F41" s="1">
@@ -1578,19 +1601,19 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
         <v>33.473670550599998</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>124.85157336810001</v>
       </c>
       <c r="F42" s="1">
@@ -1598,19 +1621,19 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>33.473711213100003</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>124.8527717108</v>
       </c>
       <c r="F43" s="1">
@@ -1618,19 +1641,19 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>33.473584306500001</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>124.8519260481</v>
       </c>
       <c r="F44" s="1">
@@ -1638,19 +1661,19 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
         <v>33.473137120600001</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>124.8506328176</v>
       </c>
       <c r="F45" s="1">
@@ -1658,19 +1681,19 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>33.473046035000003</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>124.8528148215</v>
       </c>
       <c r="F46" s="1">
@@ -1678,19 +1701,19 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
         <v>33.4733593614</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>124.85054303930001</v>
       </c>
       <c r="F47" s="1">
@@ -1698,19 +1721,19 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>33.473209457000003</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>124.8535205333</v>
       </c>
       <c r="F48" s="1">
@@ -1718,19 +1741,19 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>33.4735278562</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>124.8520419962</v>
       </c>
       <c r="F49" s="1">
@@ -1738,19 +1761,19 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
         <v>33.473249690300001</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>124.8501432308</v>
       </c>
       <c r="F50" s="1">
@@ -1758,19 +1781,19 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>33.473234802500002</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>124.85344044670001</v>
       </c>
       <c r="F51" s="1">
@@ -1778,19 +1801,19 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>33.473501946399999</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>124.8505527861</v>
       </c>
       <c r="F52" s="1">
@@ -1798,19 +1821,19 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
         <v>33.473821969399999</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>124.8538549431</v>
       </c>
       <c r="F53" s="1">
@@ -1818,19 +1841,19 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
         <v>33.4735905211</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>124.8531506249</v>
       </c>
       <c r="F54" s="1">
@@ -1838,19 +1861,19 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C55" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
         <v>33.473302760099997</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>124.8529770474</v>
       </c>
       <c r="F55" s="1">
@@ -1858,19 +1881,19 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>33.473709953399997</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>124.8518466076</v>
       </c>
       <c r="F56" s="1">
@@ -1878,19 +1901,19 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>33.473874203100003</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>124.8502091898</v>
       </c>
       <c r="F57" s="1">
@@ -1898,19 +1921,19 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="2">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58">
+      <c r="C58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
         <v>33.473970557100003</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>124.85055067819999</v>
       </c>
       <c r="F58" s="1">
@@ -1918,19 +1941,19 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>33.473906219200003</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>124.850232355</v>
       </c>
       <c r="F59" s="1">
@@ -1938,19 +1961,19 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>33.473406725300002</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>124.8527521689</v>
       </c>
       <c r="F60" s="1">
@@ -1958,19 +1981,19 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61">
+      <c r="C61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
         <v>33.473357922600002</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>124.85038900550001</v>
       </c>
       <c r="F61" s="1">
@@ -1978,19 +2001,19 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>33.4735333012</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>124.8512097241</v>
       </c>
       <c r="F62" s="1">
@@ -1998,19 +2021,19 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
         <v>33.473499401300003</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>124.8501635069</v>
       </c>
       <c r="F63" s="1">
@@ -2018,19 +2041,19 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>33.473488643800003</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>124.8539845392</v>
       </c>
       <c r="F64" s="1">
@@ -2038,19 +2061,19 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>33.473544275999998</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>124.85330783889999</v>
       </c>
       <c r="F65" s="1">
@@ -2058,19 +2081,19 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" s="2">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
         <v>33.473233265300003</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>124.8526950521</v>
       </c>
       <c r="F66" s="1">
@@ -2078,19 +2101,19 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>33.473533823700002</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>124.85017095800001</v>
       </c>
       <c r="F67" s="1">
@@ -2098,19 +2121,19 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>33.473387020700002</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>124.8530007799</v>
       </c>
       <c r="F68" s="1">
@@ -2118,19 +2141,19 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69">
+      <c r="C69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
         <v>33.473906400899999</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>124.8529996124</v>
       </c>
       <c r="F69" s="1">
@@ -2138,19 +2161,19 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>33.473901464599997</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>124.8513610466</v>
       </c>
       <c r="F70" s="1">
@@ -2158,19 +2181,19 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" s="2">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71">
+      <c r="C71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
         <v>33.4735988276</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>124.8529280946</v>
       </c>
       <c r="F71" s="1">
@@ -2178,19 +2201,19 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>33.473343178199997</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>124.8520337807</v>
       </c>
       <c r="F72" s="1">
@@ -2198,19 +2221,19 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>33.473192567200002</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>124.8515155111</v>
       </c>
       <c r="F73" s="1">
@@ -2218,19 +2241,19 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" s="2">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
         <v>33.473763824800002</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>124.8535159457</v>
       </c>
       <c r="F74" s="1">
@@ -2238,19 +2261,19 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>33.473851850700001</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>124.8539506731</v>
       </c>
       <c r="F75" s="1">
@@ -2258,19 +2281,19 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="A76" s="2">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>33.473859691000001</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>124.8509329573</v>
       </c>
       <c r="F76" s="1">
@@ -2278,19 +2301,19 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" s="2">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
         <v>33.472982529699998</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>124.8506634174</v>
       </c>
       <c r="F77" s="1">
@@ -2298,40 +2321,40 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" s="2">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>33.473510689699999</v>
-      </c>
-      <c r="E78">
-        <v>124.8537633774</v>
+      <c r="C78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>33.473647504746403</v>
+      </c>
+      <c r="E78" s="3">
+        <v>124.85046137502</v>
       </c>
       <c r="F78" s="1">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79">
+      <c r="A79" s="2">
         <f ca="1">RANDBETWEEN(2,3)</f>
         <v>2</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
         <v>33.473183532</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>124.8500509699</v>
       </c>
       <c r="F79" s="1">
@@ -2339,20 +2362,20 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80">
+      <c r="A80" s="2">
         <f t="shared" ref="A80:A143" ca="1" si="0">RANDBETWEEN(2,3)</f>
-        <v>2</v>
-      </c>
-      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
         <v>33.473785332299997</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>124.8516659693</v>
       </c>
       <c r="F80" s="1">
@@ -2360,20 +2383,20 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2">
         <v>33.4729801485</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>124.8506122476</v>
       </c>
       <c r="F81" s="1">
@@ -2381,20 +2404,20 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="A82" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
         <v>33.473895521199999</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>124.8505390318</v>
       </c>
       <c r="F82" s="1">
@@ -2402,20 +2425,20 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>33.473092544300002</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <v>124.85386318659999</v>
       </c>
       <c r="F83" s="1">
@@ -2423,20 +2446,20 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <v>33.473690466500003</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <v>124.8503669059</v>
       </c>
       <c r="F84" s="1">
@@ -2444,20 +2467,20 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
         <v>33.473986603699998</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <v>124.85171050540001</v>
       </c>
       <c r="F85" s="1">
@@ -2465,20 +2488,20 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="A86" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C86" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2">
         <v>33.4732305291</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <v>124.8512210542</v>
       </c>
       <c r="F86" s="1">
@@ -2486,20 +2509,20 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87">
+      <c r="A87" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C87" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
         <v>33.473867693999999</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <v>124.852429853</v>
       </c>
       <c r="F87" s="1">
@@ -2507,20 +2530,20 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>33.473183055299998</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <v>124.8522786138</v>
       </c>
       <c r="F88" s="1">
@@ -2528,20 +2551,20 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89">
+      <c r="A89" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2">
         <v>33.4729685597</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>124.85374194400001</v>
       </c>
       <c r="F89" s="1">
@@ -2549,20 +2572,20 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="A90" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90">
+      <c r="C90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
         <v>33.473141827200003</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>124.8503887599</v>
       </c>
       <c r="F90" s="1">
@@ -2570,20 +2593,20 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2">
         <v>33.4729698648</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <v>124.85051516759999</v>
       </c>
       <c r="F91" s="1">
@@ -2591,20 +2614,20 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>33.4736954428</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>124.85061637680001</v>
       </c>
       <c r="F92" s="1">
@@ -2612,20 +2635,20 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
         <v>33.473683473000001</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>124.8505060853</v>
       </c>
       <c r="F93" s="1">
@@ -2633,20 +2656,20 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94">
+      <c r="A94" s="2">
         <f ca="1">RANDBETWEEN(2,3)</f>
         <v>2</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>33.473616441399997</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>124.8538148474</v>
       </c>
       <c r="F94" s="1">
@@ -2654,20 +2677,20 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95">
+      <c r="A95" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C95" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
         <v>33.473746769400002</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <v>124.851380366</v>
       </c>
       <c r="F95" s="1">
@@ -2675,20 +2698,20 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="A96" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <v>33.473866503000004</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <v>124.852403462</v>
       </c>
       <c r="F96" s="1">
@@ -2696,20 +2719,20 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="A97" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <v>33.473737429499998</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <v>124.8515688459</v>
       </c>
       <c r="F97" s="1">
@@ -2717,20 +2740,20 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="A98" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C98" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98">
+      <c r="C98" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
         <v>33.473005911400001</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <v>124.8512953749</v>
       </c>
       <c r="F98" s="1">
@@ -2738,20 +2761,20 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99">
+      <c r="A99" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>33.473717091300003</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
         <v>124.8534183587</v>
       </c>
       <c r="F99" s="1">
@@ -2759,20 +2782,20 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="A100" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>33.4729783979</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <v>124.85317188969999</v>
       </c>
       <c r="F100" s="1">
@@ -2780,20 +2803,20 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="A101" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C101" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101">
+      <c r="C101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
         <v>33.473809082300001</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <v>124.85360702929999</v>
       </c>
       <c r="F101" s="1">
@@ -2801,20 +2824,20 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="A102" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>33.473391843400002</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
         <v>124.8526447502</v>
       </c>
       <c r="F102" s="1">
@@ -2822,20 +2845,20 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="A103" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C103" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
         <v>33.473967440700001</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <v>124.8521637268</v>
       </c>
       <c r="F103" s="1">
@@ -2843,20 +2866,20 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="A104" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>33.472969933100003</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
         <v>124.8510401881</v>
       </c>
       <c r="F104" s="1">
@@ -2864,20 +2887,20 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="A105" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <v>33.473696721400003</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
         <v>124.8512358001</v>
       </c>
       <c r="F105" s="1">
@@ -2885,20 +2908,20 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106">
+      <c r="A106" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C106" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106">
+      <c r="C106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
         <v>33.473154262999998</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
         <v>124.8536997274</v>
       </c>
       <c r="F106" s="1">
@@ -2906,20 +2929,20 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107">
+      <c r="A107" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C107" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107">
+      <c r="C107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2">
         <v>33.473661957399997</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <v>124.8504057034</v>
       </c>
       <c r="F107" s="1">
@@ -2927,20 +2950,20 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="A108" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C108" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108">
+      <c r="C108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
         <v>33.473845888</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <v>124.8512020189</v>
       </c>
       <c r="F108" s="1">
@@ -2948,20 +2971,20 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="A109" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>33.473345872300001</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <v>124.8509048895</v>
       </c>
       <c r="F109" s="1">
@@ -2969,20 +2992,20 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="A110" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>33.473572902999997</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <v>124.851571105</v>
       </c>
       <c r="F110" s="1">
@@ -2990,20 +3013,20 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="A111" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C111" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111">
+      <c r="C111" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
         <v>33.473322425200003</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <v>124.8531332333</v>
       </c>
       <c r="F111" s="1">
@@ -3011,20 +3034,20 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="A112" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>33.473347855</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <v>124.85200391950001</v>
       </c>
       <c r="F112" s="1">
@@ -3032,20 +3055,20 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113">
+      <c r="A113" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>33.4730678743</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
         <v>124.8517597613</v>
       </c>
       <c r="F113" s="1">
@@ -3053,20 +3076,20 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C114" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114">
+      <c r="C114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
         <v>33.473969048900003</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
         <v>124.8517024496</v>
       </c>
       <c r="F114" s="1">
@@ -3074,20 +3097,20 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="A115" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>33.473382075899998</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>124.8503354894</v>
       </c>
       <c r="F115" s="1">
@@ -3095,20 +3118,20 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116">
+      <c r="A116" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C116" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116">
+      <c r="C116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
         <v>33.473159399700002</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <v>124.851018835</v>
       </c>
       <c r="F116" s="1">
@@ -3116,20 +3139,20 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="A117" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>33.473054209899999</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2">
         <v>124.8531551177</v>
       </c>
       <c r="F117" s="1">
@@ -3137,20 +3160,20 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="A118" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="2">
         <v>33.4731276921</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <v>124.85253528139999</v>
       </c>
       <c r="F118" s="1">
@@ -3158,20 +3181,20 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119">
+      <c r="A119" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C119" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119">
+      <c r="C119" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
         <v>33.473670550599998</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
         <v>124.85157336810001</v>
       </c>
       <c r="F119" s="1">
@@ -3179,20 +3202,20 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120">
+      <c r="A120" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="2">
         <v>33.473711213100003</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="2">
         <v>124.8527717108</v>
       </c>
       <c r="F120" s="1">
@@ -3200,20 +3223,20 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="A121" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="2">
         <v>33.473584306500001</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="2">
         <v>124.8519260481</v>
       </c>
       <c r="F121" s="1">
@@ -3221,20 +3244,20 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122">
+      <c r="A122" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C122" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122">
+      <c r="C122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2">
         <v>33.473137120600001</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="2">
         <v>124.8506328176</v>
       </c>
       <c r="F122" s="1">
@@ -3242,20 +3265,20 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="A123" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="2">
         <v>33.473046035000003</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="2">
         <v>124.8528148215</v>
       </c>
       <c r="F123" s="1">
@@ -3263,20 +3286,20 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="A124" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C124" t="s">
-        <v>0</v>
-      </c>
-      <c r="D124">
+      <c r="C124" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
         <v>33.4733593614</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="2">
         <v>124.85054303930001</v>
       </c>
       <c r="F124" s="1">
@@ -3284,20 +3307,20 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="A125" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="2">
         <v>33.473209457000003</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="2">
         <v>124.8535205333</v>
       </c>
       <c r="F125" s="1">
@@ -3305,20 +3328,20 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="A126" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="2">
         <v>33.4735278562</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="2">
         <v>124.8520419962</v>
       </c>
       <c r="F126" s="1">
@@ -3326,20 +3349,20 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="A127" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C127" t="s">
-        <v>0</v>
-      </c>
-      <c r="D127">
+      <c r="C127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
         <v>33.473249690300001</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="2">
         <v>124.8501432308</v>
       </c>
       <c r="F127" s="1">
@@ -3347,20 +3370,20 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="A128" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>33.473234802500002</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="2">
         <v>124.85344044670001</v>
       </c>
       <c r="F128" s="1">
@@ -3368,20 +3391,20 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129">
+      <c r="A129" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>33.473501946399999</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
         <v>124.8505527861</v>
       </c>
       <c r="F129" s="1">
@@ -3389,20 +3412,20 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="A130" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C130" t="s">
-        <v>0</v>
-      </c>
-      <c r="D130">
+      <c r="C130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2">
         <v>33.473821969399999</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="2">
         <v>124.8538549431</v>
       </c>
       <c r="F130" s="1">
@@ -3410,20 +3433,20 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="A131" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C131" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131">
+      <c r="C131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2">
         <v>33.4735905211</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2">
         <v>124.8531506249</v>
       </c>
       <c r="F131" s="1">
@@ -3431,20 +3454,20 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="A132" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C132" t="s">
-        <v>0</v>
-      </c>
-      <c r="D132">
+      <c r="C132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
         <v>33.473302760099997</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="2">
         <v>124.8529770474</v>
       </c>
       <c r="F132" s="1">
@@ -3452,20 +3475,20 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="A133" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="2">
         <v>33.473709953399997</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="2">
         <v>124.8518466076</v>
       </c>
       <c r="F133" s="1">
@@ -3473,20 +3496,20 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="A134" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="2">
         <v>33.473874203100003</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="2">
         <v>124.8502091898</v>
       </c>
       <c r="F134" s="1">
@@ -3494,20 +3517,20 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="A135" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C135" t="s">
-        <v>0</v>
-      </c>
-      <c r="D135">
+      <c r="C135" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
         <v>33.473970557100003</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="2">
         <v>124.85055067819999</v>
       </c>
       <c r="F135" s="1">
@@ -3515,20 +3538,20 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="A136" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="2">
         <v>33.473906219200003</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="2">
         <v>124.850232355</v>
       </c>
       <c r="F136" s="1">
@@ -3536,20 +3559,20 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="A137" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <v>33.473406725300002</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="2">
         <v>124.8527521689</v>
       </c>
       <c r="F137" s="1">
@@ -3557,20 +3580,20 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="A138" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C138" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138">
+      <c r="C138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
         <v>33.473357922600002</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="2">
         <v>124.85038900550001</v>
       </c>
       <c r="F138" s="1">
@@ -3578,20 +3601,20 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="A139" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="2">
         <v>33.4735333012</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="2">
         <v>124.8512097241</v>
       </c>
       <c r="F139" s="1">
@@ -3599,20 +3622,20 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140">
+      <c r="A140" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C140" t="s">
-        <v>0</v>
-      </c>
-      <c r="D140">
+      <c r="C140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
         <v>33.473499401300003</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="2">
         <v>124.8501635069</v>
       </c>
       <c r="F140" s="1">
@@ -3620,20 +3643,20 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="A141" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="2">
         <v>33.473488643800003</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="2">
         <v>124.8539845392</v>
       </c>
       <c r="F141" s="1">
@@ -3641,20 +3664,20 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="A142" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="2">
         <v>33.473544275999998</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="2">
         <v>124.85330783889999</v>
       </c>
       <c r="F142" s="1">
@@ -3662,20 +3685,20 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="A143" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C143" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143">
+      <c r="C143" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
         <v>33.473233265300003</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="2">
         <v>124.8526950521</v>
       </c>
       <c r="F143" s="1">
@@ -3683,20 +3706,20 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144">
-        <f t="shared" ref="A144:A155" ca="1" si="1">RANDBETWEEN(2,3)</f>
-        <v>2</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="A144" s="2">
+        <f t="shared" ref="A144:A154" ca="1" si="1">RANDBETWEEN(2,3)</f>
+        <v>3</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>33.473533823700002</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="2">
         <v>124.85017095800001</v>
       </c>
       <c r="F144" s="1">
@@ -3704,20 +3727,20 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145">
+      <c r="A145" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="2">
         <v>33.473387020700002</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="2">
         <v>124.8530007799</v>
       </c>
       <c r="F145" s="1">
@@ -3725,20 +3748,20 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146">
+      <c r="A146" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C146" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146">
+      <c r="C146" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
         <v>33.473906400899999</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="2">
         <v>124.8529996124</v>
       </c>
       <c r="F146" s="1">
@@ -3746,20 +3769,20 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147">
+      <c r="A147" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="2">
         <v>33.473901464599997</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="2">
         <v>124.8513610466</v>
       </c>
       <c r="F147" s="1">
@@ -3767,20 +3790,20 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148">
+      <c r="A148" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148">
+      <c r="C148" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
         <v>33.4735988276</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="2">
         <v>124.8529280946</v>
       </c>
       <c r="F148" s="1">
@@ -3788,20 +3811,20 @@
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149">
+      <c r="A149" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>33.473343178199997</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="2">
         <v>124.8520337807</v>
       </c>
       <c r="F149" s="1">
@@ -3809,62 +3832,62 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150">
+      <c r="A150" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="2">
+        <v>33.473192567200002</v>
+      </c>
+      <c r="E150" s="2">
+        <v>124.8515155111</v>
+      </c>
+      <c r="F150" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>33.473763824800002</v>
+      </c>
+      <c r="E151" s="2">
+        <v>124.8535159457</v>
+      </c>
+      <c r="F151" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="B150" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150">
-        <v>33.473192567200002</v>
-      </c>
-      <c r="E150">
-        <v>124.8515155111</v>
-      </c>
-      <c r="F150" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B151" t="s">
-        <v>90</v>
-      </c>
-      <c r="C151" t="s">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>33.473763824800002</v>
-      </c>
-      <c r="E151">
-        <v>124.8535159457</v>
-      </c>
-      <c r="F151" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="2">
         <v>33.473851850700001</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="2">
         <v>124.8539506731</v>
       </c>
       <c r="F152" s="1">
@@ -3872,20 +3895,20 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153">
+      <c r="A153" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="2">
         <v>33.473859691000001</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="2">
         <v>124.8509329573</v>
       </c>
       <c r="F153" s="1">
@@ -3893,20 +3916,20 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154">
+      <c r="A154" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C154" t="s">
-        <v>0</v>
-      </c>
-      <c r="D154">
+      <c r="C154" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
         <v>33.472982529699998</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="2">
         <v>124.8506634174</v>
       </c>
       <c r="F154" s="1">
@@ -3914,23 +3937,62 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A155" s="2">
+        <v>1</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D155" s="3">
+        <v>33.472916964474003</v>
+      </c>
+      <c r="E155" s="3">
+        <v>124.851163459129</v>
+      </c>
+      <c r="F155" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2">
+        <v>2</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" s="3">
+        <v>33.472916964474003</v>
+      </c>
+      <c r="E156" s="3">
+        <v>124.851163459129</v>
+      </c>
+      <c r="F156" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2">
         <v>3</v>
       </c>
-      <c r="B155" t="s">
-        <v>101</v>
-      </c>
-      <c r="C155" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>33.473510689699999</v>
-      </c>
-      <c r="E155">
-        <v>124.8537633774</v>
-      </c>
-      <c r="F155" s="1">
+      <c r="B157" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D157" s="3">
+        <v>33.472916964474003</v>
+      </c>
+      <c r="E157" s="3">
+        <v>124.851163459129</v>
+      </c>
+      <c r="F157" s="1">
         <v>77</v>
       </c>
     </row>
